--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H2">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I2">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J2">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>242.0916919320178</v>
+        <v>0.1812833828831111</v>
       </c>
       <c r="R2">
-        <v>2178.82522738816</v>
+        <v>1.631550445948</v>
       </c>
       <c r="S2">
-        <v>0.2625929597488926</v>
+        <v>0.003001008010757259</v>
       </c>
       <c r="T2">
-        <v>0.2625929597488925</v>
+        <v>0.00300100801075726</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H3">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I3">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J3">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>3.069439483748444</v>
+        <v>1.003057712465445</v>
       </c>
       <c r="R3">
-        <v>27.624955353736</v>
+        <v>9.027519412188999</v>
       </c>
       <c r="S3">
-        <v>0.003329371579731679</v>
+        <v>0.01660485468931024</v>
       </c>
       <c r="T3">
-        <v>0.003329371579731678</v>
+        <v>0.01660485468931024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H4">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I4">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J4">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>17.68953010389066</v>
+        <v>5.780736090267666</v>
       </c>
       <c r="R4">
-        <v>159.205770935016</v>
+        <v>52.026624812409</v>
       </c>
       <c r="S4">
-        <v>0.01918754844281149</v>
+        <v>0.09569567292415669</v>
       </c>
       <c r="T4">
-        <v>0.01918754844281148</v>
+        <v>0.09569567292415671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>25.764247</v>
       </c>
       <c r="I5">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J5">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>223.6780929726044</v>
+        <v>0.5125482044297777</v>
       </c>
       <c r="R5">
-        <v>2013.10283675344</v>
+        <v>4.612933839867999</v>
       </c>
       <c r="S5">
-        <v>0.2426200254784374</v>
+        <v>0.008484844241817774</v>
       </c>
       <c r="T5">
-        <v>0.2426200254784373</v>
+        <v>0.008484844241817774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.764247</v>
       </c>
       <c r="I6">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J6">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>2.835976586972111</v>
@@ -818,10 +818,10 @@
         <v>25.523789282749</v>
       </c>
       <c r="S6">
-        <v>0.003076138135135559</v>
+        <v>0.04694742739499168</v>
       </c>
       <c r="T6">
-        <v>0.003076138135135558</v>
+        <v>0.04694742739499168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.764247</v>
       </c>
       <c r="I7">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J7">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>16.34405678130766</v>
@@ -880,10 +880,10 @@
         <v>147.096511031769</v>
       </c>
       <c r="S7">
-        <v>0.01772813519644754</v>
+        <v>0.2705633828589886</v>
       </c>
       <c r="T7">
-        <v>0.01772813519644753</v>
+        <v>0.2705633828589886</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>44.155672</v>
       </c>
       <c r="I8">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J8">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>383.3473769632711</v>
+        <v>0.8784231263964445</v>
       </c>
       <c r="R8">
-        <v>3450.12639266944</v>
+        <v>7.905808137568</v>
       </c>
       <c r="S8">
-        <v>0.4158107266110872</v>
+        <v>0.01454162426376344</v>
       </c>
       <c r="T8">
-        <v>0.4158107266110871</v>
+        <v>0.01454162426376344</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>44.155672</v>
       </c>
       <c r="I9">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J9">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
-        <v>4.860396345913777</v>
+        <v>4.860396345913778</v>
       </c>
       <c r="R9">
         <v>43.743567113224</v>
       </c>
       <c r="S9">
-        <v>0.005271993647698587</v>
+        <v>0.08046015104951709</v>
       </c>
       <c r="T9">
-        <v>0.005271993647698587</v>
+        <v>0.08046015104951708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>44.155672</v>
       </c>
       <c r="I10">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J10">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
-        <v>28.01101892808266</v>
+        <v>28.01101892808267</v>
       </c>
       <c r="R10">
         <v>252.099170352744</v>
       </c>
       <c r="S10">
-        <v>0.03038310115975806</v>
+        <v>0.4637010345666972</v>
       </c>
       <c r="T10">
-        <v>0.03038310115975805</v>
+        <v>0.4637010345666971</v>
       </c>
     </row>
   </sheetData>
